--- a/notes/ztex_pinout_aug16.xlsx
+++ b/notes/ztex_pinout_aug16.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\cdp\notes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId2"/>
+    <sheet name="v2 (before fix)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="304">
   <si>
     <t>Iso interface pin name</t>
   </si>
@@ -263,275 +255,686 @@
     <t>D23</t>
   </si>
   <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>srclk</t>
+  </si>
+  <si>
+    <t>pmod4[5]</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>- Make clk0/CLK1 clock capable</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>Unused signals</t>
+  </si>
+  <si>
+    <t>slotdata3[5]</t>
+  </si>
+  <si>
+    <t>slotdata3[4]</t>
+  </si>
+  <si>
+    <t>slotdata3[3]</t>
+  </si>
+  <si>
+    <t>slotdata3[2]</t>
+  </si>
+  <si>
+    <t>slotdata3[1]</t>
+  </si>
+  <si>
+    <t>slotdata3[0]</t>
+  </si>
+  <si>
+    <t>slotdata2[5]</t>
+  </si>
+  <si>
+    <t>slotdata2[4]</t>
+  </si>
+  <si>
+    <t>slotdata2[3]</t>
+  </si>
+  <si>
+    <t>slotdata2[2]</t>
+  </si>
+  <si>
+    <t>slotdata2[1]</t>
+  </si>
+  <si>
+    <t>slotdata2[0]</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>led_debug[3]</t>
+  </si>
+  <si>
+    <t>led_debug[2]</t>
+  </si>
+  <si>
+    <t>led_debug[1]</t>
+  </si>
+  <si>
+    <t>led_debug[0]</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
     <t>C27</t>
   </si>
   <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>D28</t>
-  </si>
-  <si>
-    <t>D29</t>
-  </si>
-  <si>
-    <t>D30</t>
-  </si>
-  <si>
-    <t>srclk</t>
-  </si>
-  <si>
-    <t>pmod4[5]</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>- Make clk0/CLK1 clock capable</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>Unused signals</t>
-  </si>
-  <si>
-    <t>slotdata3[5]</t>
-  </si>
-  <si>
-    <t>slotdata3[4]</t>
-  </si>
-  <si>
-    <t>slotdata3[3]</t>
-  </si>
-  <si>
-    <t>slotdata3[2]</t>
-  </si>
-  <si>
-    <t>slotdata3[1]</t>
-  </si>
-  <si>
-    <t>slotdata3[0]</t>
-  </si>
-  <si>
-    <t>slotdata2[5]</t>
-  </si>
-  <si>
-    <t>slotdata2[4]</t>
-  </si>
-  <si>
-    <t>slotdata2[3]</t>
-  </si>
-  <si>
-    <t>slotdata2[2]</t>
-  </si>
-  <si>
-    <t>slotdata2[1]</t>
-  </si>
-  <si>
-    <t>slotdata2[0]</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>led_debug[3]</t>
-  </si>
-  <si>
-    <t>led_debug[2]</t>
-  </si>
-  <si>
-    <t>led_debug[1]</t>
-  </si>
-  <si>
-    <t>led_debug[0]</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>V7</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>V9</t>
-  </si>
-  <si>
-    <t>U9</t>
+    <t>sclk</t>
+  </si>
+  <si>
+    <t>srclk2</t>
+  </si>
+  <si>
+    <t>cs_n</t>
+  </si>
+  <si>
+    <t>mosi</t>
+  </si>
+  <si>
+    <t>miso</t>
+  </si>
+  <si>
+    <t>hwcon</t>
+  </si>
+  <si>
+    <t>hwflag</t>
+  </si>
+  <si>
+    <t>reset_n</t>
+  </si>
+  <si>
+    <t>Carrier connector pin</t>
+  </si>
+  <si>
+    <t>s0_bck</t>
+  </si>
+  <si>
+    <t>s0_lrck</t>
+  </si>
+  <si>
+    <t>s0_d0</t>
+  </si>
+  <si>
+    <t>s0_d1</t>
+  </si>
+  <si>
+    <t>s0_d2</t>
+  </si>
+  <si>
+    <t>s0_d3</t>
+  </si>
+  <si>
+    <t>s1_bck</t>
+  </si>
+  <si>
+    <t>s1_lrck</t>
+  </si>
+  <si>
+    <t>s1_d0</t>
+  </si>
+  <si>
+    <t>s1_d1</t>
+  </si>
+  <si>
+    <t>s1_d2</t>
+  </si>
+  <si>
+    <t>s1_d3</t>
+  </si>
+  <si>
+    <t>s2_bck</t>
+  </si>
+  <si>
+    <t>s2_lrck</t>
+  </si>
+  <si>
+    <t>s2_d0</t>
+  </si>
+  <si>
+    <t>s2_d1</t>
+  </si>
+  <si>
+    <t>s2_d3</t>
+  </si>
+  <si>
+    <t>s2_d2</t>
+  </si>
+  <si>
+    <t>s3_bck</t>
+  </si>
+  <si>
+    <t>s3_lrck</t>
+  </si>
+  <si>
+    <t>s3_d0</t>
+  </si>
+  <si>
+    <t>s3_d1</t>
+  </si>
+  <si>
+    <t>s3_d2</t>
+  </si>
+  <si>
+    <t>s3_d3</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Note: increasing pin number on carrier -&gt; increasing number on FPGA</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>Carrier conn pin</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>OLD pin name</t>
+  </si>
+  <si>
+    <t>OLD breakout pin</t>
+  </si>
+  <si>
+    <t>ALT pin name</t>
+  </si>
+  <si>
+    <t>ALT2 pin name</t>
+  </si>
+  <si>
+    <t>slotdata[1]</t>
+  </si>
+  <si>
+    <t>slotdata[0]</t>
+  </si>
+  <si>
+    <t>slotdata[3]</t>
+  </si>
+  <si>
+    <t>slotdata[2]</t>
+  </si>
+  <si>
+    <t>slotdata[5]</t>
+  </si>
+  <si>
+    <t>slotdata[4]</t>
+  </si>
+  <si>
+    <t>slotdata[7]</t>
+  </si>
+  <si>
+    <t>slotdata[6]</t>
+  </si>
+  <si>
+    <t>slotdata[9]</t>
+  </si>
+  <si>
+    <t>slotdata[8]</t>
+  </si>
+  <si>
+    <t>slotdata[11]</t>
+  </si>
+  <si>
+    <t>slotdata[10]</t>
+  </si>
+  <si>
+    <t>slotdata[13]</t>
+  </si>
+  <si>
+    <t>slotdata[12]</t>
+  </si>
+  <si>
+    <t>slotdata[15]</t>
+  </si>
+  <si>
+    <t>slotdata[14]</t>
+  </si>
+  <si>
+    <t>slotdata[17]</t>
+  </si>
+  <si>
+    <t>slotdata[16]</t>
+  </si>
+  <si>
+    <t>slotdata[19]</t>
+  </si>
+  <si>
+    <t>slotdata[18]</t>
+  </si>
+  <si>
+    <t>slotdata[21]</t>
+  </si>
+  <si>
+    <t>slotdata[20]</t>
+  </si>
+  <si>
+    <t>slotdata[23]</t>
+  </si>
+  <si>
+    <t>slotdata[22]</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK - needed fix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,10 +945,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="55"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -577,27 +990,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -644,7 +1052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -696,7 +1104,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -890,28 +1298,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -926,7 +1334,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -937,10 +1345,10 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -951,10 +1359,10 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -965,10 +1373,10 @@
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -979,10 +1387,10 @@
         <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -990,13 +1398,13 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1004,13 +1412,13 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1018,13 +1426,13 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1032,13 +1440,13 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1049,10 +1457,10 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1063,10 +1471,10 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1077,10 +1485,10 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1091,10 +1499,10 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1102,41 +1510,41 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1147,10 +1555,10 @@
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1161,10 +1569,10 @@
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1175,10 +1583,10 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1189,10 +1597,10 @@
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1203,10 +1611,10 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1217,10 +1625,10 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1231,10 +1639,10 @@
         <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1245,10 +1653,10 @@
         <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1259,10 +1667,10 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1273,10 +1681,10 @@
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1287,10 +1695,10 @@
         <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1301,10 +1709,10 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1315,201 +1723,1497 @@
         <v>62</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D36" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="5">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="5">
+        <v>18</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="5">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="5">
+        <v>20</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="5">
+        <v>21</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="5">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="5">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="5">
+        <v>26</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="5">
+        <v>27</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="5">
+        <v>28</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="5">
+        <v>29</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="5">
+        <v>30</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26">
+        <v>33</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27">
+        <v>34</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28">
+        <v>35</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>36</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="E30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30">
+        <v>37</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31">
+        <v>38</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32">
+        <v>39</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33">
+        <v>40</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>42</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35">
+        <v>43</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36">
+        <v>44</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>244</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="4">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="5">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="5">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="5">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="5">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="5">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="5">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="5">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="5">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="5">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="5">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="5">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="5">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>42</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35">
+        <v>43</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>